--- a/testes/MM/J5_Log_excel.xlsx
+++ b/testes/MM/J5_Log_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACEW\Documents\Android\androidconcurrency\testes\MM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0F78C5B8-98A5-4868-8693-00F60532E521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5CD916A6-8C13-4D37-A232-3640332E740A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testes/MM/J5_Log_excel.xlsx
+++ b/testes/MM/J5_Log_excel.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACEW\Documents\Android\androidconcurrency\testes\MM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5CD916A6-8C13-4D37-A232-3640332E740A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9A6D12-1BD5-414B-9415-512C12FB8F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="J5_Log_agreggated" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,10 +562,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -604,7 +611,7 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -620,156 +627,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <bgColor theme="7"/>
@@ -1085,24 +942,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T114" sqref="T114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2678,76 +2535,76 @@
         <v>12</v>
       </c>
       <c r="C36">
-        <f>AVERAGE(C6:C35)</f>
-        <v>56.366666666666667</v>
+        <f>MEDIAN(C6:C35)</f>
+        <v>56</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:F36" si="0">AVERAGE(D6:D35)</f>
-        <v>55.56666666666667</v>
+        <f t="shared" ref="D36:F36" si="0">MEDIAN(D6:D35)</f>
+        <v>54</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>62.366666666666667</v>
+        <v>61</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>216.33333333333334</v>
+        <v>217.5</v>
       </c>
       <c r="I36" t="s">
         <v>12</v>
       </c>
       <c r="J36">
-        <f>AVERAGE(J6:J35)</f>
-        <v>32.266666666666666</v>
+        <f>MEDIAN(J6:J35)</f>
+        <v>29.5</v>
       </c>
       <c r="K36">
-        <f t="shared" ref="K36" si="1">AVERAGE(K6:K35)</f>
+        <f t="shared" ref="K36:M36" si="1">MEDIAN(K6:K35)</f>
         <v>29</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36" si="2">AVERAGE(L6:L35)</f>
-        <v>42.6</v>
+        <f t="shared" si="1"/>
+        <v>34.5</v>
       </c>
       <c r="M36">
-        <f t="shared" ref="M36" si="3">AVERAGE(M6:M35)</f>
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
       <c r="P36" t="s">
         <v>12</v>
       </c>
       <c r="Q36">
-        <f>AVERAGE(Q6:Q35)</f>
-        <v>32.166666666666664</v>
+        <f>MEDIAN(Q6:Q35)</f>
+        <v>28</v>
       </c>
       <c r="R36">
-        <f t="shared" ref="R36" si="4">AVERAGE(R6:R35)</f>
-        <v>24.733333333333334</v>
+        <f t="shared" ref="R36:T36" si="2">MEDIAN(R6:R35)</f>
+        <v>24</v>
       </c>
       <c r="S36">
-        <f t="shared" ref="S36" si="5">AVERAGE(S6:S35)</f>
-        <v>27.633333333333333</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="T36">
-        <f t="shared" ref="T36" si="6">AVERAGE(T6:T35)</f>
-        <v>70.63333333333334</v>
+        <f t="shared" si="2"/>
+        <v>71.5</v>
       </c>
       <c r="W36" t="s">
         <v>12</v>
       </c>
       <c r="X36">
-        <f>AVERAGE(X6:X35)</f>
-        <v>52.366666666666667</v>
+        <f>MEDIAN(X6:X35)</f>
+        <v>51.5</v>
       </c>
       <c r="Y36">
-        <f t="shared" ref="Y36" si="7">AVERAGE(Y6:Y35)</f>
-        <v>25.033333333333335</v>
+        <f t="shared" ref="Y36:AA36" si="3">MEDIAN(Y6:Y35)</f>
+        <v>22</v>
       </c>
       <c r="Z36">
-        <f t="shared" ref="Z36" si="8">AVERAGE(Z6:Z35)</f>
-        <v>26.533333333333335</v>
+        <f t="shared" si="3"/>
+        <v>25.5</v>
       </c>
       <c r="AA36">
-        <f t="shared" ref="AA36" si="9">AVERAGE(AA6:AA35)</f>
+        <f t="shared" si="3"/>
         <v>69.5</v>
       </c>
     </row>
@@ -2760,15 +2617,15 @@
         <v>2.0044444444444447</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:F37" si="10">AVEDEV(D6:D35)</f>
+        <f t="shared" ref="D37:F37" si="4">AVEDEV(D6:D35)</f>
         <v>3.2222222222222219</v>
       </c>
       <c r="E37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>3.2288888888888909</v>
       </c>
       <c r="F37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5.0222222222222213</v>
       </c>
       <c r="I37" t="s">
@@ -2779,15 +2636,15 @@
         <v>5.1733333333333329</v>
       </c>
       <c r="K37">
-        <f t="shared" ref="K37:M37" si="11">AVEDEV(K6:K35)</f>
+        <f t="shared" ref="K37:M37" si="5">AVEDEV(K6:K35)</f>
         <v>1.2666666666666666</v>
       </c>
       <c r="L37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>12.146666666666659</v>
       </c>
       <c r="M37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>17.2</v>
       </c>
       <c r="P37" t="s">
@@ -2798,15 +2655,15 @@
         <v>8.9222222222222189</v>
       </c>
       <c r="R37">
-        <f t="shared" ref="R37:T37" si="12">AVEDEV(R6:R35)</f>
+        <f t="shared" ref="R37:T37" si="6">AVEDEV(R6:R35)</f>
         <v>3.9644444444444447</v>
       </c>
       <c r="S37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>3.7777777777777772</v>
       </c>
       <c r="T37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>8.1244444444444426</v>
       </c>
       <c r="W37" t="s">
@@ -2817,15 +2674,15 @@
         <v>6.5244444444444438</v>
       </c>
       <c r="Y37">
-        <f t="shared" ref="Y37:AA37" si="13">AVEDEV(Y6:Y35)</f>
+        <f t="shared" ref="Y37:AA37" si="7">AVEDEV(Y6:Y35)</f>
         <v>4.5822222222222218</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>2.6444444444444444</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>15.9</v>
       </c>
     </row>
@@ -4403,77 +4260,77 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <f>AVERAGE(C43:C72)</f>
-        <v>672.16666666666663</v>
+        <f>MEDIAN(C43:C72)</f>
+        <v>673</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73" si="14">AVERAGE(D43:D72)</f>
-        <v>683.4</v>
+        <f t="shared" ref="D73:F73" si="8">MEDIAN(D43:D72)</f>
+        <v>669</v>
       </c>
       <c r="E73">
-        <f t="shared" ref="E73" si="15">AVERAGE(E43:E72)</f>
-        <v>696.73333333333335</v>
+        <f t="shared" si="8"/>
+        <v>686.5</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73" si="16">AVERAGE(F43:F72)</f>
-        <v>1961.6666666666667</v>
+        <f t="shared" si="8"/>
+        <v>1973</v>
       </c>
       <c r="I73" t="s">
         <v>12</v>
       </c>
       <c r="J73">
-        <f>AVERAGE(J43:J72)</f>
-        <v>343.36666666666667</v>
+        <f>MEDIAN(J43:J72)</f>
+        <v>343</v>
       </c>
       <c r="K73">
-        <f t="shared" ref="K73" si="17">AVERAGE(K43:K72)</f>
-        <v>349.7</v>
+        <f t="shared" ref="K73:M73" si="9">MEDIAN(K43:K72)</f>
+        <v>349.5</v>
       </c>
       <c r="L73">
-        <f t="shared" ref="L73" si="18">AVERAGE(L43:L72)</f>
-        <v>352.4</v>
+        <f t="shared" si="9"/>
+        <v>350.5</v>
       </c>
       <c r="M73">
-        <f t="shared" ref="M73" si="19">AVERAGE(M43:M72)</f>
-        <v>980.86666666666667</v>
+        <f t="shared" si="9"/>
+        <v>982</v>
       </c>
       <c r="P73" t="s">
         <v>12</v>
       </c>
       <c r="Q73">
-        <f>AVERAGE(Q43:Q72)</f>
-        <v>126.4</v>
+        <f>MEDIAN(Q43:Q72)</f>
+        <v>118</v>
       </c>
       <c r="R73">
-        <f t="shared" ref="R73" si="20">AVERAGE(R43:R72)</f>
-        <v>136.56666666666666</v>
+        <f t="shared" ref="R73:T73" si="10">MEDIAN(R43:R72)</f>
+        <v>126</v>
       </c>
       <c r="S73">
-        <f t="shared" ref="S73" si="21">AVERAGE(S43:S72)</f>
-        <v>139</v>
+        <f t="shared" si="10"/>
+        <v>123.5</v>
       </c>
       <c r="T73">
-        <f t="shared" ref="T73" si="22">AVERAGE(T43:T72)</f>
-        <v>316.16666666666669</v>
+        <f t="shared" si="10"/>
+        <v>294</v>
       </c>
       <c r="W73" t="s">
         <v>12</v>
       </c>
       <c r="X73">
-        <f>AVERAGE(X43:X72)</f>
-        <v>163.9</v>
+        <f>MEDIAN(X43:X72)</f>
+        <v>164.5</v>
       </c>
       <c r="Y73">
-        <f t="shared" ref="Y73" si="23">AVERAGE(Y43:Y72)</f>
-        <v>115.73333333333333</v>
+        <f t="shared" ref="Y73:AA73" si="11">MEDIAN(Y43:Y72)</f>
+        <v>104.5</v>
       </c>
       <c r="Z73">
-        <f t="shared" ref="Z73" si="24">AVERAGE(Z43:Z72)</f>
-        <v>135.33333333333334</v>
+        <f t="shared" si="11"/>
+        <v>131</v>
       </c>
       <c r="AA73">
-        <f t="shared" ref="AA73" si="25">AVERAGE(AA43:AA72)</f>
-        <v>293.56666666666666</v>
+        <f t="shared" si="11"/>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
@@ -4485,15 +4342,15 @@
         <v>7.833333333333333</v>
       </c>
       <c r="D74">
-        <f t="shared" ref="D74:F74" si="26">AVEDEV(D43:D72)</f>
+        <f t="shared" ref="D74:F74" si="12">AVEDEV(D43:D72)</f>
         <v>36.146666666666668</v>
       </c>
       <c r="E74">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>30.128888888888891</v>
       </c>
       <c r="F74">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>78.46666666666664</v>
       </c>
       <c r="I74" t="s">
@@ -4504,15 +4361,15 @@
         <v>4.8577777777777786</v>
       </c>
       <c r="K74">
-        <f t="shared" ref="K74:M74" si="27">AVEDEV(K43:K72)</f>
+        <f t="shared" ref="K74:M74" si="13">AVEDEV(K43:K72)</f>
         <v>11.233333333333333</v>
       </c>
       <c r="L74">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>11.213333333333329</v>
       </c>
       <c r="M74">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>38.14222222222223</v>
       </c>
       <c r="P74" t="s">
@@ -4523,15 +4380,15 @@
         <v>15.866666666666658</v>
       </c>
       <c r="R74">
-        <f t="shared" ref="R74:T74" si="28">AVEDEV(R43:R72)</f>
+        <f t="shared" ref="R74:T74" si="14">AVEDEV(R43:R72)</f>
         <v>21.917777777777768</v>
       </c>
       <c r="S74">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="T74">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>51.522222222222219</v>
       </c>
       <c r="W74" t="s">
@@ -4542,15 +4399,15 @@
         <v>20.373333333333338</v>
       </c>
       <c r="Y74">
-        <f t="shared" ref="Y74:AA74" si="29">AVEDEV(Y43:Y72)</f>
+        <f t="shared" ref="Y74:AA74" si="15">AVEDEV(Y43:Y72)</f>
         <v>17.906666666666673</v>
       </c>
       <c r="Z74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>12.866666666666664</v>
       </c>
       <c r="AA74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>22.917777777777783</v>
       </c>
     </row>
@@ -5248,7 +5105,7 @@
       <c r="M92">
         <v>8442</v>
       </c>
-      <c r="P92" s="2"/>
+      <c r="P92" s="1"/>
       <c r="Q92">
         <v>1057</v>
       </c>
@@ -6129,77 +5986,77 @@
         <v>12</v>
       </c>
       <c r="C110">
-        <f>AVERAGE(C80:C109)</f>
-        <v>7297.166666666667</v>
+        <f>MEDIAN(C80:C109)</f>
+        <v>7292</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110" si="30">AVERAGE(D80:D109)</f>
-        <v>7279.6333333333332</v>
+        <f t="shared" ref="D110:F110" si="16">MEDIAN(D80:D109)</f>
+        <v>7296.5</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110" si="31">AVERAGE(E80:E109)</f>
-        <v>7247.6333333333332</v>
+        <f t="shared" si="16"/>
+        <v>7234.5</v>
       </c>
       <c r="F110">
-        <f t="shared" ref="F110" si="32">AVERAGE(F80:F109)</f>
-        <v>16919.366666666665</v>
+        <f t="shared" si="16"/>
+        <v>16898.5</v>
       </c>
       <c r="I110" t="s">
         <v>12</v>
       </c>
       <c r="J110">
-        <f>AVERAGE(J80:J109)</f>
-        <v>3626.7</v>
+        <f>MEDIAN(J80:J109)</f>
+        <v>3636.5</v>
       </c>
       <c r="K110">
-        <f t="shared" ref="K110" si="33">AVERAGE(K80:K109)</f>
-        <v>3659.8</v>
+        <f t="shared" ref="K110:M110" si="17">MEDIAN(K80:K109)</f>
+        <v>3665</v>
       </c>
       <c r="L110">
-        <f t="shared" ref="L110" si="34">AVERAGE(L80:L109)</f>
-        <v>3616.0333333333333</v>
+        <f t="shared" si="17"/>
+        <v>3580</v>
       </c>
       <c r="M110">
-        <f t="shared" ref="M110" si="35">AVERAGE(M80:M109)</f>
-        <v>8475.6666666666661</v>
+        <f t="shared" si="17"/>
+        <v>8453.5</v>
       </c>
       <c r="P110" t="s">
         <v>12</v>
       </c>
       <c r="Q110">
-        <f>AVERAGE(Q80:Q109)</f>
-        <v>1097.7333333333333</v>
+        <f>MEDIAN(Q80:Q109)</f>
+        <v>1067</v>
       </c>
       <c r="R110">
-        <f t="shared" ref="R110" si="36">AVERAGE(R80:R109)</f>
-        <v>1054.5</v>
+        <f t="shared" ref="R110:T110" si="18">MEDIAN(R80:R109)</f>
+        <v>1056.5</v>
       </c>
       <c r="S110">
-        <f t="shared" ref="S110" si="37">AVERAGE(S80:S109)</f>
-        <v>1094.5666666666666</v>
+        <f t="shared" si="18"/>
+        <v>1070.5</v>
       </c>
       <c r="T110">
-        <f t="shared" ref="T110" si="38">AVERAGE(T80:T109)</f>
-        <v>2323.6</v>
+        <f t="shared" si="18"/>
+        <v>2317.5</v>
       </c>
       <c r="W110" t="s">
         <v>12</v>
       </c>
       <c r="X110">
-        <f>AVERAGE(X80:X109)</f>
-        <v>1067.3666666666666</v>
+        <f>MEDIAN(X80:X109)</f>
+        <v>1019.5</v>
       </c>
       <c r="Y110">
-        <f t="shared" ref="Y110" si="39">AVERAGE(Y80:Y109)</f>
-        <v>1039.3</v>
+        <f t="shared" ref="Y110:AA110" si="19">MEDIAN(Y80:Y109)</f>
+        <v>1037.5</v>
       </c>
       <c r="Z110">
-        <f t="shared" ref="Z110" si="40">AVERAGE(Z80:Z109)</f>
-        <v>1068.2666666666667</v>
+        <f t="shared" si="19"/>
+        <v>1056</v>
       </c>
       <c r="AA110">
-        <f t="shared" ref="AA110" si="41">AVERAGE(AA80:AA109)</f>
-        <v>2364.2666666666669</v>
+        <f t="shared" si="19"/>
+        <v>2353</v>
       </c>
     </row>
     <row r="111" spans="2:27" x14ac:dyDescent="0.25">
@@ -6211,15 +6068,15 @@
         <v>97.122222222222263</v>
       </c>
       <c r="D111">
-        <f t="shared" ref="D111:F111" si="42">AVEDEV(D80:D109)</f>
+        <f t="shared" ref="D111:F111" si="20">AVEDEV(D80:D109)</f>
         <v>68.082222222222242</v>
       </c>
       <c r="E111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>117.58444444444443</v>
       </c>
       <c r="F111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>76.306666666666331</v>
       </c>
       <c r="I111" t="s">
@@ -6230,15 +6087,15 @@
         <v>92.1</v>
       </c>
       <c r="K111">
-        <f t="shared" ref="K111:M111" si="43">AVEDEV(K80:K109)</f>
+        <f t="shared" ref="K111:M111" si="21">AVEDEV(K80:K109)</f>
         <v>80.2</v>
       </c>
       <c r="L111">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>83.24444444444444</v>
       </c>
       <c r="M111">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>68.911111111110955</v>
       </c>
       <c r="P111" t="s">
@@ -6249,15 +6106,15 @@
         <v>72.524444444444455</v>
       </c>
       <c r="R111">
-        <f t="shared" ref="R111:T111" si="44">AVEDEV(R80:R109)</f>
+        <f t="shared" ref="R111:T111" si="22">AVEDEV(R80:R109)</f>
         <v>30.1</v>
       </c>
       <c r="S111">
-        <f t="shared" si="44"/>
+        <f t="shared" si="22"/>
         <v>54.622222222222199</v>
       </c>
       <c r="T111">
-        <f t="shared" si="44"/>
+        <f t="shared" si="22"/>
         <v>65.306666666666658</v>
       </c>
       <c r="W111" t="s">
@@ -6268,15 +6125,15 @@
         <v>86.828888888888869</v>
       </c>
       <c r="Y111">
-        <f t="shared" ref="Y111:AA111" si="45">AVEDEV(Y80:Y109)</f>
+        <f t="shared" ref="Y111:AA111" si="23">AVEDEV(Y80:Y109)</f>
         <v>27.1</v>
       </c>
       <c r="Z111">
-        <f t="shared" si="45"/>
+        <f t="shared" si="23"/>
         <v>42.737777777777772</v>
       </c>
       <c r="AA111">
-        <f t="shared" si="45"/>
+        <f t="shared" si="23"/>
         <v>50.417777777777793</v>
       </c>
     </row>
@@ -6285,17 +6142,17 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:F35 J6:M35 Q6:T35 X6:AA35 Q6:T35">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR(C6&lt;(C$36-2*C$37),C6&gt;(C$36+2*C$37))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:F72 J43:M72 Q43:T72 X43:AA72">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>OR(C43&lt;(C$73-2*C$74),C43&gt;(C$73+2*C$74))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:F109 J80:M109 Q80:T109 X80:AA109">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(C80&lt;(C$110-2*C$111),C80&gt;(C$110+2*C$111))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/testes/MM/J5_Log_excel.xlsx
+++ b/testes/MM/J5_Log_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACEW\Documents\Android\androidconcurrency\testes\MM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9A6D12-1BD5-414B-9415-512C12FB8F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE1B028-6362-4928-9F3A-50571E4ADC63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,10 +65,10 @@
     <t>512x512</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Deviation</t>
   </si>
   <si>
-    <t>Deviation</t>
+    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -568,48 +568,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -647,7 +647,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -945,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T114" sqref="T114"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36">
         <f>MEDIAN(C6:C35)</f>
@@ -2551,7 +2551,7 @@
         <v>217.5</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J36">
         <f>MEDIAN(J6:J35)</f>
@@ -2570,7 +2570,7 @@
         <v>131</v>
       </c>
       <c r="P36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q36">
         <f>MEDIAN(Q6:Q35)</f>
@@ -2589,7 +2589,7 @@
         <v>71.5</v>
       </c>
       <c r="W36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X36">
         <f>MEDIAN(X6:X35)</f>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <f>AVEDEV(C6:C35)</f>
@@ -2629,7 +2629,7 @@
         <v>5.0222222222222213</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J37">
         <f>AVEDEV(J6:J35)</f>
@@ -2648,7 +2648,7 @@
         <v>17.2</v>
       </c>
       <c r="P37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q37">
         <f>AVEDEV(Q6:Q35)</f>
@@ -2667,7 +2667,7 @@
         <v>8.1244444444444426</v>
       </c>
       <c r="W37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X37">
         <f>AVEDEV(X6:X35)</f>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C73">
         <f>MEDIAN(C43:C72)</f>
@@ -4276,7 +4276,7 @@
         <v>1973</v>
       </c>
       <c r="I73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J73">
         <f>MEDIAN(J43:J72)</f>
@@ -4295,7 +4295,7 @@
         <v>982</v>
       </c>
       <c r="P73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q73">
         <f>MEDIAN(Q43:Q72)</f>
@@ -4314,7 +4314,7 @@
         <v>294</v>
       </c>
       <c r="W73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X73">
         <f>MEDIAN(X43:X72)</f>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74">
         <f>AVEDEV(C43:C72)</f>
@@ -4354,7 +4354,7 @@
         <v>78.46666666666664</v>
       </c>
       <c r="I74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J74">
         <f>AVEDEV(J43:J72)</f>
@@ -4373,7 +4373,7 @@
         <v>38.14222222222223</v>
       </c>
       <c r="P74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q74">
         <f>AVEDEV(Q43:Q72)</f>
@@ -4392,7 +4392,7 @@
         <v>51.522222222222219</v>
       </c>
       <c r="W74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X74">
         <f>AVEDEV(X43:X72)</f>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="110" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C110">
         <f>MEDIAN(C80:C109)</f>
@@ -6002,7 +6002,7 @@
         <v>16898.5</v>
       </c>
       <c r="I110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J110">
         <f>MEDIAN(J80:J109)</f>
@@ -6021,7 +6021,7 @@
         <v>8453.5</v>
       </c>
       <c r="P110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q110">
         <f>MEDIAN(Q80:Q109)</f>
@@ -6040,7 +6040,7 @@
         <v>2317.5</v>
       </c>
       <c r="W110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X110">
         <f>MEDIAN(X80:X109)</f>
@@ -6061,7 +6061,7 @@
     </row>
     <row r="111" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C111">
         <f>AVEDEV(C80:C109)</f>
@@ -6080,7 +6080,7 @@
         <v>76.306666666666331</v>
       </c>
       <c r="I111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J111">
         <f>AVEDEV(J80:J109)</f>
@@ -6099,7 +6099,7 @@
         <v>68.911111111110955</v>
       </c>
       <c r="P111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q111">
         <f>AVEDEV(Q80:Q109)</f>
@@ -6118,7 +6118,7 @@
         <v>65.306666666666658</v>
       </c>
       <c r="W111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X111">
         <f>AVEDEV(X80:X109)</f>

--- a/testes/MM/J5_Log_excel.xlsx
+++ b/testes/MM/J5_Log_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACEW\Documents\Android\androidconcurrency\testes\MM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE1B028-6362-4928-9F3A-50571E4ADC63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07F1422-B733-46E6-A243-1CD8AC1CC4B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="18">
   <si>
     <t>Matrix multiplication</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>Median</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>Thread Pool</t>
+  </si>
+  <si>
+    <t>Ideal</t>
   </si>
 </sst>
 </file>
@@ -611,7 +623,35 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -644,6 +684,4233 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Multiplicação de Matrizes (128x128)  - Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$4:$AG$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$5:$AG$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8983050847457628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.087378640776699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-377F-49DD-9AE2-F7CD3611E5C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thread Pool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$4:$AG$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$6:$AG$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8620689655172413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4545454545454546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-377F-49DD-9AE2-F7CD3611E5C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HaMeR framework</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$4:$AG$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$7:$AG$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7681159420289856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3461538461538463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.392156862745098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-377F-49DD-9AE2-F7CD3611E5C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kotlin coroutines</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$4:$AG$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$8:$AG$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6603053435114503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0419580419580421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1294964028776979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-377F-49DD-9AE2-F7CD3611E5C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AC$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$4:$AG$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AD$9:$AG$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-377F-49DD-9AE2-F7CD3611E5C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="338592968"/>
+        <c:axId val="403486688"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="338592968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tarefas</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403486688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="403486688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338592968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Multiplicação de Matrizes (256x256) - Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$40:$AH$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$41:$AH$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9620991253644315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7033898305084749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0911854103343464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3956-46FC-90DC-D7F3C895AEB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thread Pool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$40:$AH$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$42:$AH$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9141630901287554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3095238095238093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.401913875598086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3956-46FC-90DC-D7F3C895AEB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HaMeR framework</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$40:$AH$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$43:$AH$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9586305278174037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5587044534412957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2404580152671754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3956-46FC-90DC-D7F3C895AEB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kotlin coroutines</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$40:$AH$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$44:$AH$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0091649694501017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7108843537414966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0716845878136203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3956-46FC-90DC-D7F3C895AEB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$40:$AH$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$45:$AH$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3956-46FC-90DC-D7F3C895AEB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="338592968"/>
+        <c:axId val="403486688"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="338592968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tarefas</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403486688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="403486688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338592968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Multiplicação de Matrizes (512x512) - Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$80:$AH$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$81:$AH$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0052248040698473</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8341143392689787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1525257479156448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3F2-42ED-AEB3-A875AB826B99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thread Pool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$80:$AH$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$82:$AH$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9908594815825376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9062943681968765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.032771084337349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3F2-42ED-AEB3-A875AB826B99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HaMeR framework</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$80:$AH$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$83:$AH$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0208100558659217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7580569827183563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8508522727272725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D3F2-42ED-AEB3-A875AB826B99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kotlin coroutines</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$80:$AH$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$84:$AH$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9989944993198083</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2916936353829556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1816829579260517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D3F2-42ED-AEB3-A875AB826B99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AD$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$80:$AH$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AE$85:$AH$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D3F2-42ED-AEB3-A875AB826B99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="338592968"/>
+        <c:axId val="403486688"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="338592968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tarefas</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403486688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="403486688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338592968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>170125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>531566</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>92196</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377F0034-AEF7-4E7E-9C86-292B6ECB147F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>100445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>775447</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>72432</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B10EF07-CCA0-46D7-B206-372B1A66B27B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>214993</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>106136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08955761-1589-48D5-A072-ECDF166FCF7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -943,15 +5210,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AH111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView tabSelected="1" topLeftCell="Y85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ95" sqref="AJ95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -961,12 +5228,12 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -979,8 +5246,23 @@
       <c r="W4" t="s">
         <v>5</v>
       </c>
+      <c r="AC4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <v>8</v>
+      </c>
+      <c r="AG4">
+        <v>64</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +5311,27 @@
       <c r="AA5" t="s">
         <v>9</v>
       </c>
+      <c r="AC5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD5">
+        <f>$C$36/$C$36</f>
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <f>$C$36/$J$36</f>
+        <v>1.8983050847457628</v>
+      </c>
+      <c r="AF5">
+        <f>$C$36/$Q$36</f>
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <f>$C$36/$X$36</f>
+        <v>1.087378640776699</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>55</v>
       </c>
@@ -1079,8 +5380,27 @@
       <c r="AA6">
         <v>74</v>
       </c>
+      <c r="AC6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD6">
+        <f>$D$36/$D$36</f>
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <f>$D$36/$K$36</f>
+        <v>1.8620689655172413</v>
+      </c>
+      <c r="AF6">
+        <f>$D$36/$R$36</f>
+        <v>2.25</v>
+      </c>
+      <c r="AG6">
+        <f>$D$36/$Y$36</f>
+        <v>2.4545454545454546</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>53</v>
       </c>
@@ -1129,8 +5449,27 @@
       <c r="AA7">
         <v>78</v>
       </c>
+      <c r="AC7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD7">
+        <f>$E$36/$E$36</f>
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <f>$E$36/$L$36</f>
+        <v>1.7681159420289856</v>
+      </c>
+      <c r="AF7">
+        <f>$E$36/$S$36</f>
+        <v>2.3461538461538463</v>
+      </c>
+      <c r="AG7">
+        <f>$E$36/$Z$36</f>
+        <v>2.392156862745098</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>54</v>
       </c>
@@ -1179,8 +5518,27 @@
       <c r="AA8">
         <v>79</v>
       </c>
+      <c r="AC8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD8">
+        <f>$F$36/$F$36</f>
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <f>$F$36/$M$36</f>
+        <v>1.6603053435114503</v>
+      </c>
+      <c r="AF8">
+        <f>$F$36/$T$36</f>
+        <v>3.0419580419580421</v>
+      </c>
+      <c r="AG8">
+        <f>$F$36/$AA$36</f>
+        <v>3.1294964028776979</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>55</v>
       </c>
@@ -1229,8 +5587,23 @@
       <c r="AA9">
         <v>86</v>
       </c>
+      <c r="AC9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AF9">
+        <v>8</v>
+      </c>
+      <c r="AG9">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>56</v>
       </c>
@@ -1280,7 +5653,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>64</v>
       </c>
@@ -1330,7 +5703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>56</v>
       </c>
@@ -1380,7 +5753,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>53</v>
       </c>
@@ -1430,7 +5803,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>57</v>
       </c>
@@ -1480,7 +5853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>56</v>
       </c>
@@ -1530,7 +5903,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>55</v>
       </c>
@@ -2380,7 +6753,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>56</v>
       </c>
@@ -2430,7 +6803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>55</v>
       </c>
@@ -2480,7 +6853,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>55</v>
       </c>
@@ -2530,7 +6903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>13</v>
       </c>
@@ -2608,7 +6981,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>12</v>
       </c>
@@ -2686,12 +7059,29 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AD40" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <v>2</v>
+      </c>
+      <c r="AG40">
+        <v>8</v>
+      </c>
+      <c r="AH40">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>2</v>
       </c>
@@ -2704,8 +7094,27 @@
       <c r="W41" t="s">
         <v>5</v>
       </c>
+      <c r="AD41" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE41">
+        <f>$C$73/$C$73</f>
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <f>$C$73/$J$73</f>
+        <v>1.9620991253644315</v>
+      </c>
+      <c r="AG41">
+        <f>$C$73/$Q$73</f>
+        <v>5.7033898305084749</v>
+      </c>
+      <c r="AH41">
+        <f>$C$73/$X$73</f>
+        <v>4.0911854103343464</v>
+      </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>6</v>
       </c>
@@ -2754,8 +7163,27 @@
       <c r="AA42" t="s">
         <v>9</v>
       </c>
+      <c r="AD42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE42">
+        <f>$D$73/$D$73</f>
+        <v>1</v>
+      </c>
+      <c r="AF42">
+        <f>$D$73/$K$73</f>
+        <v>1.9141630901287554</v>
+      </c>
+      <c r="AG42">
+        <f>$D$73/$R$73</f>
+        <v>5.3095238095238093</v>
+      </c>
+      <c r="AH42">
+        <f>$D$73/$Y$73</f>
+        <v>6.401913875598086</v>
+      </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>682</v>
       </c>
@@ -2804,8 +7232,27 @@
       <c r="AA43">
         <v>278</v>
       </c>
+      <c r="AD43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE43">
+        <f>$E$73/$E$73</f>
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <f>$E$73/$L$73</f>
+        <v>1.9586305278174037</v>
+      </c>
+      <c r="AG43">
+        <f>$E$73/$S$73</f>
+        <v>5.5587044534412957</v>
+      </c>
+      <c r="AH43">
+        <f>$E$73/$Z$73</f>
+        <v>5.2404580152671754</v>
+      </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>676</v>
       </c>
@@ -2854,8 +7301,27 @@
       <c r="AA44">
         <v>300</v>
       </c>
+      <c r="AD44" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE44">
+        <f>$F$73/$F$73</f>
+        <v>1</v>
+      </c>
+      <c r="AF44">
+        <f>$F$73/$M$73</f>
+        <v>2.0091649694501017</v>
+      </c>
+      <c r="AG44">
+        <f>$F$73/$T$73</f>
+        <v>6.7108843537414966</v>
+      </c>
+      <c r="AH44">
+        <f>$F$73/$AA$73</f>
+        <v>7.0716845878136203</v>
+      </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>674</v>
       </c>
@@ -2904,8 +7370,23 @@
       <c r="AA45">
         <v>280</v>
       </c>
+      <c r="AD45" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
+      </c>
+      <c r="AF45">
+        <v>2</v>
+      </c>
+      <c r="AG45">
+        <v>8</v>
+      </c>
+      <c r="AH45">
+        <v>8</v>
+      </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>686</v>
       </c>
@@ -2955,7 +7436,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>662</v>
       </c>
@@ -3005,7 +7486,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>685</v>
       </c>
@@ -3855,7 +8336,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>672</v>
       </c>
@@ -3905,7 +8386,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>668</v>
       </c>
@@ -3955,7 +8436,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>665</v>
       </c>
@@ -4005,7 +8486,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>677</v>
       </c>
@@ -4055,7 +8536,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>668</v>
       </c>
@@ -4105,7 +8586,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>658</v>
       </c>
@@ -4155,7 +8636,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>663</v>
       </c>
@@ -4205,7 +8686,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>677</v>
       </c>
@@ -4255,7 +8736,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>13</v>
       </c>
@@ -4333,7 +8814,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>12</v>
       </c>
@@ -4411,12 +8892,12 @@
         <v>22.917777777777783</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>2</v>
       </c>
@@ -4430,7 +8911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>6</v>
       </c>
@@ -4480,7 +8961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>7366</v>
       </c>
@@ -4529,8 +9010,23 @@
       <c r="AA80">
         <v>2365</v>
       </c>
+      <c r="AD80" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE80">
+        <v>1</v>
+      </c>
+      <c r="AF80">
+        <v>2</v>
+      </c>
+      <c r="AG80">
+        <v>8</v>
+      </c>
+      <c r="AH80">
+        <v>64</v>
+      </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>7353</v>
       </c>
@@ -4579,8 +9075,27 @@
       <c r="AA81">
         <v>2329</v>
       </c>
+      <c r="AD81" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE81">
+        <f>$C$110/$C$110</f>
+        <v>1</v>
+      </c>
+      <c r="AF81">
+        <f>$C$110/$J$110</f>
+        <v>2.0052248040698473</v>
+      </c>
+      <c r="AG81">
+        <f>$C$110/$Q$110</f>
+        <v>6.8341143392689787</v>
+      </c>
+      <c r="AH81">
+        <f>$C$110/$X$110</f>
+        <v>7.1525257479156448</v>
+      </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>7124</v>
       </c>
@@ -4629,8 +9144,27 @@
       <c r="AA82">
         <v>2400</v>
       </c>
+      <c r="AD82" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE82">
+        <f>$D$110/$D$110</f>
+        <v>1</v>
+      </c>
+      <c r="AF82">
+        <f>$D$110/$K$110</f>
+        <v>1.9908594815825376</v>
+      </c>
+      <c r="AG82">
+        <f>$D$110/$R$110</f>
+        <v>6.9062943681968765</v>
+      </c>
+      <c r="AH82">
+        <f>$D$110/$Y$110</f>
+        <v>7.032771084337349</v>
+      </c>
     </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>7294</v>
       </c>
@@ -4679,8 +9213,27 @@
       <c r="AA83">
         <v>2388</v>
       </c>
+      <c r="AD83" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE83">
+        <f>$E$110/$E$110</f>
+        <v>1</v>
+      </c>
+      <c r="AF83">
+        <f>$E$110/$L$110</f>
+        <v>2.0208100558659217</v>
+      </c>
+      <c r="AG83">
+        <f>$E$110/$S$110</f>
+        <v>6.7580569827183563</v>
+      </c>
+      <c r="AH83">
+        <f>$E$110/$Z$110</f>
+        <v>6.8508522727272725</v>
+      </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>7252</v>
       </c>
@@ -4729,8 +9282,27 @@
       <c r="AA84">
         <v>2529</v>
       </c>
+      <c r="AD84" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE84">
+        <f>$F$110/$F$110</f>
+        <v>1</v>
+      </c>
+      <c r="AF84">
+        <f>$F$110/$M$110</f>
+        <v>1.9989944993198083</v>
+      </c>
+      <c r="AG84">
+        <f>$F$110/$T$110</f>
+        <v>7.2916936353829556</v>
+      </c>
+      <c r="AH84">
+        <f>$F$110/$AA$110</f>
+        <v>7.1816829579260517</v>
+      </c>
     </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>7470</v>
       </c>
@@ -4779,8 +9351,23 @@
       <c r="AA85">
         <v>2455</v>
       </c>
+      <c r="AD85" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE85">
+        <v>1</v>
+      </c>
+      <c r="AF85">
+        <v>2</v>
+      </c>
+      <c r="AG85">
+        <v>8</v>
+      </c>
+      <c r="AH85">
+        <v>8</v>
+      </c>
     </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>7187</v>
       </c>
@@ -4830,7 +9417,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>7540</v>
       </c>
@@ -4880,7 +9467,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>7230</v>
       </c>
@@ -4930,7 +9517,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>7413</v>
       </c>
@@ -4980,7 +9567,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>7241</v>
       </c>
@@ -5030,7 +9617,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>7610</v>
       </c>
@@ -5080,7 +9667,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>7136</v>
       </c>
@@ -5131,7 +9718,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>7195</v>
       </c>
@@ -5181,7 +9768,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>7241</v>
       </c>
@@ -5231,7 +9818,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>7353</v>
       </c>
@@ -5281,7 +9868,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>7292</v>
       </c>
@@ -6141,22 +10728,33 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6:F35 J6:M35 Q6:T35 X6:AA35 Q6:T35">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="C6:F35 J6:M35 X6:AA35 Q6:T35 AD9:AG9">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>OR(C6&lt;(C$36-2*C$37),C6&gt;(C$36+2*C$37))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:F72 J43:M72 Q43:T72 X43:AA72">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>OR(C43&lt;(C$73-2*C$74),C43&gt;(C$73+2*C$74))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:F109 J80:M109 Q80:T109 X80:AA109">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>OR(C80&lt;(C$110-2*C$111),C80&gt;(C$110+2*C$111))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE45:AH45">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>OR(AE45&lt;(AE$36-2*AE$37),AE45&gt;(AE$36+2*AE$37))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE85:AH85">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR(C80&lt;(C$110-2*C$111),C80&gt;(C$110+2*C$111))</formula>
+      <formula>OR(AE85&lt;(AE$36-2*AE$37),AE85&gt;(AE$36+2*AE$37))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/testes/MM/J5_Log_excel.xlsx
+++ b/testes/MM/J5_Log_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACEW\Documents\Android\androidconcurrency\testes\MM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07F1422-B733-46E6-A243-1CD8AC1CC4B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72838D22-7F8F-4733-AA5E-967594335BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10080" yWindow="3135" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="J5_Log_agreggated" sheetId="1" r:id="rId1"/>
@@ -4874,16 +4874,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>214993</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>106136</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>175409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>952501</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>813956</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>123702</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5212,8 +5212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ95" sqref="AJ95"/>
+    <sheetView tabSelected="1" topLeftCell="AC73" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF34" sqref="AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testes/MM/J5_Log_excel.xlsx
+++ b/testes/MM/J5_Log_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACEW\Documents\Android\androidconcurrency\testes\MM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72838D22-7F8F-4733-AA5E-967594335BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34D84E1-DC13-4CCD-AEB1-37A3C5A09D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10080" yWindow="3135" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="J5_Log_agreggated" sheetId="1" r:id="rId1"/>
@@ -623,21 +623,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -5212,8 +5198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC73" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF34" sqref="AF34"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL24" sqref="AL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10734,12 +10720,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:F72 J43:M72 Q43:T72 X43:AA72">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>OR(C43&lt;(C$73-2*C$74),C43&gt;(C$73+2*C$74))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:F109 J80:M109 Q80:T109 X80:AA109">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR(C80&lt;(C$110-2*C$111),C80&gt;(C$110+2*C$111))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/testes/MM/J5_Log_excel.xlsx
+++ b/testes/MM/J5_Log_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACEW\Documents\Android\androidconcurrency\testes\MM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34D84E1-DC13-4CCD-AEB1-37A3C5A09D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CEE349-3ACD-4305-82BF-2598CBF88B9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="25">
   <si>
     <t>Matrix multiplication</t>
   </si>
@@ -81,6 +82,27 @@
   </si>
   <si>
     <t>Ideal</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>HaMeR</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thread </t>
+  </si>
+  <si>
+    <t>kotlin coroutines</t>
+  </si>
+  <si>
+    <t>S64</t>
+  </si>
+  <si>
+    <t>ThreaPool</t>
   </si>
 </sst>
 </file>
@@ -5196,10 +5218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH111"/>
+  <dimension ref="A1:AW113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL24" sqref="AL24"/>
+    <sheetView tabSelected="1" topLeftCell="AD78" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AV113" sqref="AV113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8322,7 +8344,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>672</v>
       </c>
@@ -8372,7 +8394,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>668</v>
       </c>
@@ -8422,7 +8444,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>665</v>
       </c>
@@ -8472,7 +8494,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>677</v>
       </c>
@@ -8522,7 +8544,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>668</v>
       </c>
@@ -8572,7 +8594,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>658</v>
       </c>
@@ -8622,7 +8644,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>663</v>
       </c>
@@ -8672,7 +8694,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>677</v>
       </c>
@@ -8722,7 +8744,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>13</v>
       </c>
@@ -8800,7 +8822,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>12</v>
       </c>
@@ -8878,12 +8900,12 @@
         <v>22.917777777777783</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>2</v>
       </c>
@@ -8897,7 +8919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>6</v>
       </c>
@@ -8946,8 +8968,17 @@
       <c r="AA79" t="s">
         <v>9</v>
       </c>
+      <c r="AJ79" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO79" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT79" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>7366</v>
       </c>
@@ -9011,8 +9042,44 @@
       <c r="AH80">
         <v>64</v>
       </c>
+      <c r="AJ80" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO80" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP80" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ80" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR80" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT80" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU80" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV80" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW80" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="81" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>7353</v>
       </c>
@@ -9080,8 +9147,56 @@
         <f>$C$110/$X$110</f>
         <v>7.1525257479156448</v>
       </c>
+      <c r="AJ81">
+        <f>C80/J80</f>
+        <v>2.0175294439879483</v>
+      </c>
+      <c r="AK81">
+        <f t="shared" ref="AK81:AM81" si="16">D80/K80</f>
+        <v>1.9915600326708414</v>
+      </c>
+      <c r="AL81">
+        <f t="shared" si="16"/>
+        <v>1.9209968186638389</v>
+      </c>
+      <c r="AM81">
+        <f t="shared" si="16"/>
+        <v>2.0016575893914279</v>
+      </c>
+      <c r="AO81">
+        <f>C80/Q80</f>
+        <v>6.9359698681732578</v>
+      </c>
+      <c r="AP81">
+        <f t="shared" ref="AP81:AR81" si="17">D80/R80</f>
+        <v>6.7110091743119265</v>
+      </c>
+      <c r="AQ81">
+        <f t="shared" si="17"/>
+        <v>7.0830889540566959</v>
+      </c>
+      <c r="AR81">
+        <f t="shared" si="17"/>
+        <v>7.0441666666666665</v>
+      </c>
+      <c r="AT81">
+        <f>C80/X80</f>
+        <v>6.7702205882352944</v>
+      </c>
+      <c r="AU81">
+        <f t="shared" ref="AU81:AW81" si="18">D80/Y80</f>
+        <v>7.2140039447731752</v>
+      </c>
+      <c r="AV81">
+        <f t="shared" si="18"/>
+        <v>6.7973733583489677</v>
+      </c>
+      <c r="AW81">
+        <f t="shared" si="18"/>
+        <v>7.1484143763213535</v>
+      </c>
     </row>
-    <row r="82" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>7124</v>
       </c>
@@ -9149,8 +9264,56 @@
         <f>$D$110/$Y$110</f>
         <v>7.032771084337349</v>
       </c>
+      <c r="AJ82">
+        <f t="shared" ref="AJ82:AJ110" si="19">C81/J81</f>
+        <v>1.9385710519377801</v>
+      </c>
+      <c r="AK82">
+        <f t="shared" ref="AK82:AK110" si="20">D81/K81</f>
+        <v>1.8727082242011523</v>
+      </c>
+      <c r="AL82">
+        <f t="shared" ref="AL82:AL110" si="21">E81/L81</f>
+        <v>1.8973214285714286</v>
+      </c>
+      <c r="AM82">
+        <f t="shared" ref="AM82:AM110" si="22">F81/M81</f>
+        <v>1.9496277338296881</v>
+      </c>
+      <c r="AO82">
+        <f t="shared" ref="AO82:AO110" si="23">C81/Q81</f>
+        <v>6.8146431881371639</v>
+      </c>
+      <c r="AP82">
+        <f t="shared" ref="AP82:AP110" si="24">D81/R81</f>
+        <v>6.8290353390639922</v>
+      </c>
+      <c r="AQ82">
+        <f t="shared" ref="AQ82:AQ110" si="25">E81/S81</f>
+        <v>6.9006685768863418</v>
+      </c>
+      <c r="AR82">
+        <f t="shared" ref="AR82:AR110" si="26">F81/T81</f>
+        <v>6.9137788778877889</v>
+      </c>
+      <c r="AT82">
+        <f t="shared" ref="AT82:AT110" si="27">C81/X81</f>
+        <v>5.9586709886547808</v>
+      </c>
+      <c r="AU82">
+        <f t="shared" ref="AU82:AU110" si="28">D81/Y81</f>
+        <v>6.9350145489815711</v>
+      </c>
+      <c r="AV82">
+        <f t="shared" ref="AV82:AV110" si="29">E81/Z81</f>
+        <v>6.2338222605694567</v>
+      </c>
+      <c r="AW82">
+        <f t="shared" ref="AW82:AW110" si="30">F81/AA81</f>
+        <v>7.1957921854873339</v>
+      </c>
     </row>
-    <row r="83" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>7294</v>
       </c>
@@ -9218,8 +9381,56 @@
         <f>$E$110/$Z$110</f>
         <v>6.8508522727272725</v>
       </c>
+      <c r="AJ83">
+        <f t="shared" si="19"/>
+        <v>1.9657836644591611</v>
+      </c>
+      <c r="AK83">
+        <f t="shared" si="20"/>
+        <v>1.9</v>
+      </c>
+      <c r="AL83">
+        <f t="shared" si="21"/>
+        <v>2.1089330719686363</v>
+      </c>
+      <c r="AM83">
+        <f t="shared" si="22"/>
+        <v>1.9597214161346488</v>
+      </c>
+      <c r="AO83">
+        <f t="shared" si="23"/>
+        <v>6.7207547169811317</v>
+      </c>
+      <c r="AP83">
+        <f t="shared" si="24"/>
+        <v>6.7321428571428568</v>
+      </c>
+      <c r="AQ83">
+        <f t="shared" si="25"/>
+        <v>7.0186393289841567</v>
+      </c>
+      <c r="AR83">
+        <f t="shared" si="26"/>
+        <v>7.3628434365460098</v>
+      </c>
+      <c r="AT83">
+        <f t="shared" si="27"/>
+        <v>7.0395256916996045</v>
+      </c>
+      <c r="AU83">
+        <f t="shared" si="28"/>
+        <v>6.7575471698113212</v>
+      </c>
+      <c r="AV83">
+        <f t="shared" si="29"/>
+        <v>6.7724820143884896</v>
+      </c>
+      <c r="AW83">
+        <f t="shared" si="30"/>
+        <v>7.034583333333333</v>
+      </c>
     </row>
-    <row r="84" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>7252</v>
       </c>
@@ -9287,8 +9498,56 @@
         <f>$F$110/$AA$110</f>
         <v>7.1816829579260517</v>
       </c>
+      <c r="AJ84">
+        <f t="shared" si="19"/>
+        <v>2.0587073101891051</v>
+      </c>
+      <c r="AK84">
+        <f t="shared" si="20"/>
+        <v>1.9233615221987315</v>
+      </c>
+      <c r="AL84">
+        <f t="shared" si="21"/>
+        <v>2.0542702085118538</v>
+      </c>
+      <c r="AM84">
+        <f t="shared" si="22"/>
+        <v>1.9997622726732438</v>
+      </c>
+      <c r="AO84">
+        <f t="shared" si="23"/>
+        <v>6.6733760292772191</v>
+      </c>
+      <c r="AP84">
+        <f t="shared" si="24"/>
+        <v>6.7891791044776122</v>
+      </c>
+      <c r="AQ84">
+        <f t="shared" si="25"/>
+        <v>5.9833610648918469</v>
+      </c>
+      <c r="AR84">
+        <f t="shared" si="26"/>
+        <v>7.257981018119068</v>
+      </c>
+      <c r="AT84">
+        <f t="shared" si="27"/>
+        <v>6.9932885906040267</v>
+      </c>
+      <c r="AU84">
+        <f t="shared" si="28"/>
+        <v>6.8855250709555342</v>
+      </c>
+      <c r="AV84">
+        <f t="shared" si="29"/>
+        <v>7.0303030303030303</v>
+      </c>
+      <c r="AW84">
+        <f t="shared" si="30"/>
+        <v>7.0452261306532664</v>
+      </c>
     </row>
-    <row r="85" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>7470</v>
       </c>
@@ -9352,8 +9611,56 @@
       <c r="AH85">
         <v>8</v>
       </c>
+      <c r="AJ85">
+        <f t="shared" si="19"/>
+        <v>2.0803212851405624</v>
+      </c>
+      <c r="AK85">
+        <f t="shared" si="20"/>
+        <v>1.9536617842876165</v>
+      </c>
+      <c r="AL85">
+        <f t="shared" si="21"/>
+        <v>2.0473239436619717</v>
+      </c>
+      <c r="AM85">
+        <f t="shared" si="22"/>
+        <v>1.9653659662895404</v>
+      </c>
+      <c r="AO85">
+        <f t="shared" si="23"/>
+        <v>7.0407766990291263</v>
+      </c>
+      <c r="AP85">
+        <f t="shared" si="24"/>
+        <v>6.4748455428067082</v>
+      </c>
+      <c r="AQ85">
+        <f t="shared" si="25"/>
+        <v>7.0019267822736033</v>
+      </c>
+      <c r="AR85">
+        <f t="shared" si="26"/>
+        <v>7.2442553191489365</v>
+      </c>
+      <c r="AT85">
+        <f t="shared" si="27"/>
+        <v>7.2811244979919678</v>
+      </c>
+      <c r="AU85">
+        <f t="shared" si="28"/>
+        <v>7.1640625</v>
+      </c>
+      <c r="AV85">
+        <f t="shared" si="29"/>
+        <v>6.8630783758262508</v>
+      </c>
+      <c r="AW85">
+        <f t="shared" si="30"/>
+        <v>6.7315144325820482</v>
+      </c>
     </row>
-    <row r="86" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>7187</v>
       </c>
@@ -9402,8 +9709,56 @@
       <c r="AA86">
         <v>2584</v>
       </c>
+      <c r="AJ86">
+        <f t="shared" si="19"/>
+        <v>2.1107657530375814</v>
+      </c>
+      <c r="AK86">
+        <f t="shared" si="20"/>
+        <v>1.9210034694422204</v>
+      </c>
+      <c r="AL86">
+        <f t="shared" si="21"/>
+        <v>2.0214024218529993</v>
+      </c>
+      <c r="AM86">
+        <f t="shared" si="22"/>
+        <v>1.9883693609022557</v>
+      </c>
+      <c r="AO86">
+        <f t="shared" si="23"/>
+        <v>6.8344007319304669</v>
+      </c>
+      <c r="AP86">
+        <f t="shared" si="24"/>
+        <v>6.6771799628942485</v>
+      </c>
+      <c r="AQ86">
+        <f t="shared" si="25"/>
+        <v>5.5172943889315915</v>
+      </c>
+      <c r="AR86">
+        <f t="shared" si="26"/>
+        <v>7.0994127516778525</v>
+      </c>
+      <c r="AT86">
+        <f t="shared" si="27"/>
+        <v>6.7970882620564153</v>
+      </c>
+      <c r="AU86">
+        <f t="shared" si="28"/>
+        <v>6.8946360153256707</v>
+      </c>
+      <c r="AV86">
+        <f t="shared" si="29"/>
+        <v>6.8492366412213741</v>
+      </c>
+      <c r="AW86">
+        <f t="shared" si="30"/>
+        <v>6.8940936863543785</v>
+      </c>
     </row>
-    <row r="87" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>7540</v>
       </c>
@@ -9452,8 +9807,56 @@
       <c r="AA87">
         <v>2321</v>
       </c>
+      <c r="AJ87">
+        <f t="shared" si="19"/>
+        <v>2.0464123006833712</v>
+      </c>
+      <c r="AK87">
+        <f t="shared" si="20"/>
+        <v>1.9871020856201975</v>
+      </c>
+      <c r="AL87">
+        <f t="shared" si="21"/>
+        <v>1.9875541125541125</v>
+      </c>
+      <c r="AM87">
+        <f t="shared" si="22"/>
+        <v>1.9966002344665885</v>
+      </c>
+      <c r="AO87">
+        <f t="shared" si="23"/>
+        <v>4.8991138377641441</v>
+      </c>
+      <c r="AP87">
+        <f t="shared" si="24"/>
+        <v>6.4136403897254208</v>
+      </c>
+      <c r="AQ87">
+        <f t="shared" si="25"/>
+        <v>7.0363984674329503</v>
+      </c>
+      <c r="AR87">
+        <f t="shared" si="26"/>
+        <v>7.3504531722054383</v>
+      </c>
+      <c r="AT87">
+        <f t="shared" si="27"/>
+        <v>6.9709020368574199</v>
+      </c>
+      <c r="AU87">
+        <f t="shared" si="28"/>
+        <v>6.7926829268292686</v>
+      </c>
+      <c r="AV87">
+        <f t="shared" si="29"/>
+        <v>7.2949354518371399</v>
+      </c>
+      <c r="AW87">
+        <f t="shared" si="30"/>
+        <v>6.59094427244582</v>
+      </c>
     </row>
-    <row r="88" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>7230</v>
       </c>
@@ -9502,8 +9905,56 @@
       <c r="AA88">
         <v>2365</v>
       </c>
+      <c r="AJ88">
+        <f t="shared" si="19"/>
+        <v>2.0095948827292109</v>
+      </c>
+      <c r="AK88">
+        <f t="shared" si="20"/>
+        <v>2.0054156512320604</v>
+      </c>
+      <c r="AL88">
+        <f t="shared" si="21"/>
+        <v>2.0765134529147984</v>
+      </c>
+      <c r="AM88">
+        <f t="shared" si="22"/>
+        <v>1.996452642781128</v>
+      </c>
+      <c r="AO88">
+        <f t="shared" si="23"/>
+        <v>5.4796511627906979</v>
+      </c>
+      <c r="AP88">
+        <f t="shared" si="24"/>
+        <v>7.1763565891472867</v>
+      </c>
+      <c r="AQ88">
+        <f t="shared" si="25"/>
+        <v>7.1308950914340716</v>
+      </c>
+      <c r="AR88">
+        <f t="shared" si="26"/>
+        <v>7.4674922600619196</v>
+      </c>
+      <c r="AT88">
+        <f t="shared" si="27"/>
+        <v>7.3776908023483365</v>
+      </c>
+      <c r="AU88">
+        <f t="shared" si="28"/>
+        <v>7.450704225352113</v>
+      </c>
+      <c r="AV88">
+        <f t="shared" si="29"/>
+        <v>6.8920930232558142</v>
+      </c>
+      <c r="AW88">
+        <f t="shared" si="30"/>
+        <v>7.2744506678155965</v>
+      </c>
     </row>
-    <row r="89" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>7413</v>
       </c>
@@ -9552,8 +10003,56 @@
       <c r="AA89">
         <v>2358</v>
       </c>
+      <c r="AJ89">
+        <f t="shared" si="19"/>
+        <v>2.0651242502142244</v>
+      </c>
+      <c r="AK89">
+        <f t="shared" si="20"/>
+        <v>2.0341810226961989</v>
+      </c>
+      <c r="AL89">
+        <f t="shared" si="21"/>
+        <v>2.0695919508105085</v>
+      </c>
+      <c r="AM89">
+        <f t="shared" si="22"/>
+        <v>1.9970619344223763</v>
+      </c>
+      <c r="AO89">
+        <f t="shared" si="23"/>
+        <v>5.6705882352941179</v>
+      </c>
+      <c r="AP89">
+        <f t="shared" si="24"/>
+        <v>7.0047080979284368</v>
+      </c>
+      <c r="AQ89">
+        <f t="shared" si="25"/>
+        <v>7.2243902439024392</v>
+      </c>
+      <c r="AR89">
+        <f t="shared" si="26"/>
+        <v>7.3914745541539801</v>
+      </c>
+      <c r="AT89">
+        <f t="shared" si="27"/>
+        <v>7.2517552657973923</v>
+      </c>
+      <c r="AU89">
+        <f t="shared" si="28"/>
+        <v>6.9523364485981309</v>
+      </c>
+      <c r="AV89">
+        <f t="shared" si="29"/>
+        <v>7.210321324245375</v>
+      </c>
+      <c r="AW89">
+        <f t="shared" si="30"/>
+        <v>7.1852008456659622</v>
+      </c>
     </row>
-    <row r="90" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>7241</v>
       </c>
@@ -9602,8 +10101,56 @@
       <c r="AA90">
         <v>2404</v>
       </c>
+      <c r="AJ90">
+        <f t="shared" si="19"/>
+        <v>2.0964366515837103</v>
+      </c>
+      <c r="AK90">
+        <f t="shared" si="20"/>
+        <v>2.0390952247975425</v>
+      </c>
+      <c r="AL90">
+        <f t="shared" si="21"/>
+        <v>2.0944085417252039</v>
+      </c>
+      <c r="AM90">
+        <f t="shared" si="22"/>
+        <v>1.9962454534788221</v>
+      </c>
+      <c r="AO90">
+        <f t="shared" si="23"/>
+        <v>5.7287480680061824</v>
+      </c>
+      <c r="AP90">
+        <f t="shared" si="24"/>
+        <v>6.711397058823529</v>
+      </c>
+      <c r="AQ90">
+        <f t="shared" si="25"/>
+        <v>7.0254476908576811</v>
+      </c>
+      <c r="AR90">
+        <f t="shared" si="26"/>
+        <v>7.0773710482529122</v>
+      </c>
+      <c r="AT90">
+        <f t="shared" si="27"/>
+        <v>7.3034482758620687</v>
+      </c>
+      <c r="AU90">
+        <f t="shared" si="28"/>
+        <v>7.0009587727708533</v>
+      </c>
+      <c r="AV90">
+        <f t="shared" si="29"/>
+        <v>7.3006856023506366</v>
+      </c>
+      <c r="AW90">
+        <f t="shared" si="30"/>
+        <v>7.2154368108566578</v>
+      </c>
     </row>
-    <row r="91" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>7610</v>
       </c>
@@ -9652,8 +10199,56 @@
       <c r="AA91">
         <v>2372</v>
       </c>
+      <c r="AJ91">
+        <f t="shared" si="19"/>
+        <v>1.9617989704687078</v>
+      </c>
+      <c r="AK91">
+        <f t="shared" si="20"/>
+        <v>1.9442536327608984</v>
+      </c>
+      <c r="AL91">
+        <f t="shared" si="21"/>
+        <v>1.974918211559433</v>
+      </c>
+      <c r="AM91">
+        <f t="shared" si="22"/>
+        <v>1.9809191390343224</v>
+      </c>
+      <c r="AO91">
+        <f t="shared" si="23"/>
+        <v>7.0990196078431369</v>
+      </c>
+      <c r="AP91">
+        <f t="shared" si="24"/>
+        <v>7.2147058823529413</v>
+      </c>
+      <c r="AQ91">
+        <f t="shared" si="25"/>
+        <v>6.2502157031924073</v>
+      </c>
+      <c r="AR91">
+        <f t="shared" si="26"/>
+        <v>7.0588723051409614</v>
+      </c>
+      <c r="AT91">
+        <f t="shared" si="27"/>
+        <v>7.0029013539651839</v>
+      </c>
+      <c r="AU91">
+        <f t="shared" si="28"/>
+        <v>6.6537070524412298</v>
+      </c>
+      <c r="AV91">
+        <f t="shared" si="29"/>
+        <v>6.8793922127255458</v>
+      </c>
+      <c r="AW91">
+        <f t="shared" si="30"/>
+        <v>7.0823627287853581</v>
+      </c>
     </row>
-    <row r="92" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>7136</v>
       </c>
@@ -9703,8 +10298,56 @@
       <c r="AA92">
         <v>2340</v>
       </c>
+      <c r="AJ92">
+        <f t="shared" si="19"/>
+        <v>2.1197771587743732</v>
+      </c>
+      <c r="AK92">
+        <f t="shared" si="20"/>
+        <v>1.9824797843665769</v>
+      </c>
+      <c r="AL92">
+        <f t="shared" si="21"/>
+        <v>1.9207816213361499</v>
+      </c>
+      <c r="AM92">
+        <f t="shared" si="22"/>
+        <v>1.9562195969423211</v>
+      </c>
+      <c r="AO92">
+        <f t="shared" si="23"/>
+        <v>7.5872382851445659</v>
+      </c>
+      <c r="AP92">
+        <f t="shared" si="24"/>
+        <v>6.9125939849624061</v>
+      </c>
+      <c r="AQ92">
+        <f t="shared" si="25"/>
+        <v>6.3583916083916083</v>
+      </c>
+      <c r="AR92">
+        <f t="shared" si="26"/>
+        <v>7.4405286343612334</v>
+      </c>
+      <c r="AT92">
+        <f t="shared" si="27"/>
+        <v>7.5123395853899311</v>
+      </c>
+      <c r="AU92">
+        <f t="shared" si="28"/>
+        <v>7.5746652935118437</v>
+      </c>
+      <c r="AV92">
+        <f t="shared" si="29"/>
+        <v>7.082765335929893</v>
+      </c>
+      <c r="AW92">
+        <f t="shared" si="30"/>
+        <v>7.120573355817875</v>
+      </c>
     </row>
-    <row r="93" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>7195</v>
       </c>
@@ -9753,8 +10396,56 @@
       <c r="AA93">
         <v>2409</v>
       </c>
+      <c r="AJ93">
+        <f t="shared" si="19"/>
+        <v>2.0382747786346758</v>
+      </c>
+      <c r="AK93">
+        <f t="shared" si="20"/>
+        <v>1.9264626945786365</v>
+      </c>
+      <c r="AL93">
+        <f t="shared" si="21"/>
+        <v>2.0412399667866041</v>
+      </c>
+      <c r="AM93">
+        <f t="shared" si="22"/>
+        <v>2.0037905709547501</v>
+      </c>
+      <c r="AO93">
+        <f t="shared" si="23"/>
+        <v>6.7511825922421949</v>
+      </c>
+      <c r="AP93">
+        <f t="shared" si="24"/>
+        <v>6.8296860133206474</v>
+      </c>
+      <c r="AQ93">
+        <f t="shared" si="25"/>
+        <v>7.0981713185755533</v>
+      </c>
+      <c r="AR93">
+        <f t="shared" si="26"/>
+        <v>7.2569712569712568</v>
+      </c>
+      <c r="AT93">
+        <f t="shared" si="27"/>
+        <v>6.8287081339712916</v>
+      </c>
+      <c r="AU93">
+        <f t="shared" si="28"/>
+        <v>7.2286002014098694</v>
+      </c>
+      <c r="AV93">
+        <f t="shared" si="29"/>
+        <v>7.1601941747572813</v>
+      </c>
+      <c r="AW93">
+        <f t="shared" si="30"/>
+        <v>7.2290598290598291</v>
+      </c>
     </row>
-    <row r="94" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>7241</v>
       </c>
@@ -9803,8 +10494,56 @@
       <c r="AA94">
         <v>2375</v>
       </c>
+      <c r="AJ94">
+        <f t="shared" si="19"/>
+        <v>2.0770785219399537</v>
+      </c>
+      <c r="AK94">
+        <f t="shared" si="20"/>
+        <v>1.9758259468170829</v>
+      </c>
+      <c r="AL94">
+        <f t="shared" si="21"/>
+        <v>2.0544217687074831</v>
+      </c>
+      <c r="AM94">
+        <f t="shared" si="22"/>
+        <v>2.013095238095238</v>
+      </c>
+      <c r="AO94">
+        <f t="shared" si="23"/>
+        <v>6.5888278388278385</v>
+      </c>
+      <c r="AP94">
+        <f t="shared" si="24"/>
+        <v>7.1765853658536587</v>
+      </c>
+      <c r="AQ94">
+        <f t="shared" si="25"/>
+        <v>6.5771324863883844</v>
+      </c>
+      <c r="AR94">
+        <f t="shared" si="26"/>
+        <v>8.1454720616570331</v>
+      </c>
+      <c r="AT94">
+        <f t="shared" si="27"/>
+        <v>7.2750252780586449</v>
+      </c>
+      <c r="AU94">
+        <f t="shared" si="28"/>
+        <v>6.979127134724858</v>
+      </c>
+      <c r="AV94">
+        <f t="shared" si="29"/>
+        <v>6.5533453887884265</v>
+      </c>
+      <c r="AW94">
+        <f t="shared" si="30"/>
+        <v>7.0195101701951019</v>
+      </c>
     </row>
-    <row r="95" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>7353</v>
       </c>
@@ -9853,8 +10592,56 @@
       <c r="AA95">
         <v>2312</v>
       </c>
+      <c r="AJ95">
+        <f t="shared" si="19"/>
+        <v>2.042595204513399</v>
+      </c>
+      <c r="AK95">
+        <f t="shared" si="20"/>
+        <v>1.9756493506493507</v>
+      </c>
+      <c r="AL95">
+        <f t="shared" si="21"/>
+        <v>1.9852732936845086</v>
+      </c>
+      <c r="AM95">
+        <f t="shared" si="22"/>
+        <v>2.0203474535935269</v>
+      </c>
+      <c r="AO95">
+        <f t="shared" si="23"/>
+        <v>7.2555110220440886</v>
+      </c>
+      <c r="AP95">
+        <f t="shared" si="24"/>
+        <v>7.2082922013820339</v>
+      </c>
+      <c r="AQ95">
+        <f t="shared" si="25"/>
+        <v>6.5514018691588785</v>
+      </c>
+      <c r="AR95">
+        <f t="shared" si="26"/>
+        <v>7.2902533276084158</v>
+      </c>
+      <c r="AT95">
+        <f t="shared" si="27"/>
+        <v>7.1269685039370083</v>
+      </c>
+      <c r="AU95">
+        <f t="shared" si="28"/>
+        <v>7.2082922013820339</v>
+      </c>
+      <c r="AV95">
+        <f t="shared" si="29"/>
+        <v>6.2926391382405749</v>
+      </c>
+      <c r="AW95">
+        <f t="shared" si="30"/>
+        <v>7.1490526315789475</v>
+      </c>
     </row>
-    <row r="96" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>7292</v>
       </c>
@@ -9903,8 +10690,56 @@
       <c r="AA96">
         <v>2348</v>
       </c>
+      <c r="AJ96">
+        <f t="shared" si="19"/>
+        <v>2.0835930858600169</v>
+      </c>
+      <c r="AK96">
+        <f t="shared" si="20"/>
+        <v>1.9563470808784145</v>
+      </c>
+      <c r="AL96">
+        <f t="shared" si="21"/>
+        <v>2.0322304620650313</v>
+      </c>
+      <c r="AM96">
+        <f t="shared" si="22"/>
+        <v>2.0098376200071115</v>
+      </c>
+      <c r="AO96">
+        <f t="shared" si="23"/>
+        <v>6.9630681818181817</v>
+      </c>
+      <c r="AP96">
+        <f t="shared" si="24"/>
+        <v>7.1198830409356724</v>
+      </c>
+      <c r="AQ96">
+        <f t="shared" si="25"/>
+        <v>6.6526610644257707</v>
+      </c>
+      <c r="AR96">
+        <f t="shared" si="26"/>
+        <v>7.2096088435374153</v>
+      </c>
+      <c r="AT96">
+        <f t="shared" si="27"/>
+        <v>7.5184049079754605</v>
+      </c>
+      <c r="AU96">
+        <f t="shared" si="28"/>
+        <v>6.6712328767123283</v>
+      </c>
+      <c r="AV96">
+        <f t="shared" si="29"/>
+        <v>5.6863527533918594</v>
+      </c>
+      <c r="AW96">
+        <f t="shared" si="30"/>
+        <v>7.3343425605536332</v>
+      </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>7256</v>
       </c>
@@ -9953,8 +10788,56 @@
       <c r="AA97">
         <v>2373</v>
       </c>
+      <c r="AJ97">
+        <f t="shared" si="19"/>
+        <v>2.0622171945701355</v>
+      </c>
+      <c r="AK97">
+        <f t="shared" si="20"/>
+        <v>2.0082599118942732</v>
+      </c>
+      <c r="AL97">
+        <f t="shared" si="21"/>
+        <v>1.9753189129229063</v>
+      </c>
+      <c r="AM97">
+        <f t="shared" si="22"/>
+        <v>1.9934880416765333</v>
+      </c>
+      <c r="AO97">
+        <f t="shared" si="23"/>
+        <v>7.0933852140077818</v>
+      </c>
+      <c r="AP97">
+        <f t="shared" si="24"/>
+        <v>6.8488262910798126</v>
+      </c>
+      <c r="AQ97">
+        <f t="shared" si="25"/>
+        <v>6.6076066790352508</v>
+      </c>
+      <c r="AR97">
+        <f t="shared" si="26"/>
+        <v>7.3911325724319576</v>
+      </c>
+      <c r="AT97">
+        <f t="shared" si="27"/>
+        <v>6.3079584775086506</v>
+      </c>
+      <c r="AU97">
+        <f t="shared" si="28"/>
+        <v>6.7977632805219015</v>
+      </c>
+      <c r="AV97">
+        <f t="shared" si="29"/>
+        <v>6.9021317829457365</v>
+      </c>
+      <c r="AW97">
+        <f t="shared" si="30"/>
+        <v>7.1707836456558773</v>
+      </c>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>7292</v>
       </c>
@@ -10003,8 +10886,56 @@
       <c r="AA98">
         <v>2286</v>
       </c>
+      <c r="AJ98">
+        <f t="shared" si="19"/>
+        <v>2.080275229357798</v>
+      </c>
+      <c r="AK98">
+        <f t="shared" si="20"/>
+        <v>2.0077390823659482</v>
+      </c>
+      <c r="AL98">
+        <f t="shared" si="21"/>
+        <v>2.025808204292312</v>
+      </c>
+      <c r="AM98">
+        <f t="shared" si="22"/>
+        <v>1.9989349112426036</v>
+      </c>
+      <c r="AO98">
+        <f t="shared" si="23"/>
+        <v>7.1067580803134183</v>
+      </c>
+      <c r="AP98">
+        <f t="shared" si="24"/>
+        <v>7.1496062992125982</v>
+      </c>
+      <c r="AQ98">
+        <f t="shared" si="25"/>
+        <v>6.9238625812441965</v>
+      </c>
+      <c r="AR98">
+        <f t="shared" si="26"/>
+        <v>7.5171339563862931</v>
+      </c>
+      <c r="AT98">
+        <f t="shared" si="27"/>
+        <v>7.0859375</v>
+      </c>
+      <c r="AU98">
+        <f t="shared" si="28"/>
+        <v>7.0251450676982587</v>
+      </c>
+      <c r="AV98">
+        <f t="shared" si="29"/>
+        <v>6.9561567164179108</v>
+      </c>
+      <c r="AW98">
+        <f t="shared" si="30"/>
+        <v>7.1179941002949851</v>
+      </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>7326</v>
       </c>
@@ -10053,8 +10984,56 @@
       <c r="AA99">
         <v>2335</v>
       </c>
+      <c r="AJ99">
+        <f t="shared" si="19"/>
+        <v>1.9617971482378262</v>
+      </c>
+      <c r="AK99">
+        <f t="shared" si="20"/>
+        <v>2.0673022994952328</v>
+      </c>
+      <c r="AL99">
+        <f t="shared" si="21"/>
+        <v>1.9592847317744153</v>
+      </c>
+      <c r="AM99">
+        <f t="shared" si="22"/>
+        <v>2.024237408370773</v>
+      </c>
+      <c r="AO99">
+        <f t="shared" si="23"/>
+        <v>6.2699914015477214</v>
+      </c>
+      <c r="AP99">
+        <f t="shared" si="24"/>
+        <v>6.7385740402193788</v>
+      </c>
+      <c r="AQ99">
+        <f t="shared" si="25"/>
+        <v>6.7893231649189705</v>
+      </c>
+      <c r="AR99">
+        <f t="shared" si="26"/>
+        <v>7.6501340482573728</v>
+      </c>
+      <c r="AT99">
+        <f t="shared" si="27"/>
+        <v>7.2341269841269842</v>
+      </c>
+      <c r="AU99">
+        <f t="shared" si="28"/>
+        <v>6.9481621112158338</v>
+      </c>
+      <c r="AV99">
+        <f t="shared" si="29"/>
+        <v>6.263852242744063</v>
+      </c>
+      <c r="AW99">
+        <f t="shared" si="30"/>
+        <v>7.4895013123359577</v>
+      </c>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>7327</v>
       </c>
@@ -10103,8 +11082,56 @@
       <c r="AA100">
         <v>2415</v>
       </c>
+      <c r="AJ100">
+        <f t="shared" si="19"/>
+        <v>2.0209655172413794</v>
+      </c>
+      <c r="AK100">
+        <f t="shared" si="20"/>
+        <v>2.0526463963963963</v>
+      </c>
+      <c r="AL100">
+        <f t="shared" si="21"/>
+        <v>2.0893355667225015</v>
+      </c>
+      <c r="AM100">
+        <f t="shared" si="22"/>
+        <v>2.0213095238095238</v>
+      </c>
+      <c r="AO100">
+        <f t="shared" si="23"/>
+        <v>6.6660600545950865</v>
+      </c>
+      <c r="AP100">
+        <f t="shared" si="24"/>
+        <v>6.8653483992467041</v>
+      </c>
+      <c r="AQ100">
+        <f t="shared" si="25"/>
+        <v>6.9232192414431086</v>
+      </c>
+      <c r="AR100">
+        <f t="shared" si="26"/>
+        <v>7.4698636163660357</v>
+      </c>
+      <c r="AT100">
+        <f t="shared" si="27"/>
+        <v>7.126459143968872</v>
+      </c>
+      <c r="AU100">
+        <f t="shared" si="28"/>
+        <v>7.0717749757516977</v>
+      </c>
+      <c r="AV100">
+        <f t="shared" si="29"/>
+        <v>7.3157380254154445</v>
+      </c>
+      <c r="AW100">
+        <f t="shared" si="30"/>
+        <v>7.27152034261242</v>
+      </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>7447</v>
       </c>
@@ -10153,8 +11180,56 @@
       <c r="AA101">
         <v>2263</v>
       </c>
+      <c r="AJ101">
+        <f t="shared" si="19"/>
+        <v>1.9845612134344528</v>
+      </c>
+      <c r="AK101">
+        <f t="shared" si="20"/>
+        <v>1.9826827927432655</v>
+      </c>
+      <c r="AL101">
+        <f t="shared" si="21"/>
+        <v>2.0917117630304758</v>
+      </c>
+      <c r="AM101">
+        <f t="shared" si="22"/>
+        <v>2.0201912858660998</v>
+      </c>
+      <c r="AO101">
+        <f t="shared" si="23"/>
+        <v>6.7592250922509223</v>
+      </c>
+      <c r="AP101">
+        <f t="shared" si="24"/>
+        <v>6.8892072588347659</v>
+      </c>
+      <c r="AQ101">
+        <f t="shared" si="25"/>
+        <v>6.2769230769230768</v>
+      </c>
+      <c r="AR101">
+        <f t="shared" si="26"/>
+        <v>7.3115384615384613</v>
+      </c>
+      <c r="AT101">
+        <f t="shared" si="27"/>
+        <v>4.8944555778223116</v>
+      </c>
+      <c r="AU101">
+        <f t="shared" si="28"/>
+        <v>6.849952516619183</v>
+      </c>
+      <c r="AV101">
+        <f t="shared" si="29"/>
+        <v>7.1300970873786405</v>
+      </c>
+      <c r="AW101">
+        <f t="shared" si="30"/>
+        <v>7.0844720496894409</v>
+      </c>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C102">
         <v>7159</v>
       </c>
@@ -10203,8 +11278,56 @@
       <c r="AA102">
         <v>2274</v>
       </c>
+      <c r="AJ102">
+        <f t="shared" si="19"/>
+        <v>2.0385984122638927</v>
+      </c>
+      <c r="AK102">
+        <f t="shared" si="20"/>
+        <v>1.9619579675445598</v>
+      </c>
+      <c r="AL102">
+        <f t="shared" si="21"/>
+        <v>2.0174500422178441</v>
+      </c>
+      <c r="AM102">
+        <f t="shared" si="22"/>
+        <v>1.9975094876660342</v>
+      </c>
+      <c r="AO102">
+        <f t="shared" si="23"/>
+        <v>6.832110091743119</v>
+      </c>
+      <c r="AP102">
+        <f t="shared" si="24"/>
+        <v>7.2374877330716387</v>
+      </c>
+      <c r="AQ102">
+        <f t="shared" si="25"/>
+        <v>6.8923076923076927</v>
+      </c>
+      <c r="AR102">
+        <f t="shared" si="26"/>
+        <v>7.4329214474845546</v>
+      </c>
+      <c r="AT102">
+        <f t="shared" si="27"/>
+        <v>6.9210037174721188</v>
+      </c>
+      <c r="AU102">
+        <f t="shared" si="28"/>
+        <v>7.3602794411177648</v>
+      </c>
+      <c r="AV102">
+        <f t="shared" si="29"/>
+        <v>6.0438448566610452</v>
+      </c>
+      <c r="AW102">
+        <f t="shared" si="30"/>
+        <v>7.4427750773309764</v>
+      </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C103">
         <v>7331</v>
       </c>
@@ -10253,8 +11376,56 @@
       <c r="AA103">
         <v>2346</v>
       </c>
+      <c r="AJ103">
+        <f t="shared" si="19"/>
+        <v>1.8667535853976531</v>
+      </c>
+      <c r="AK103">
+        <f t="shared" si="20"/>
+        <v>1.9997260273972604</v>
+      </c>
+      <c r="AL103">
+        <f t="shared" si="21"/>
+        <v>1.9289269911504425</v>
+      </c>
+      <c r="AM103">
+        <f t="shared" si="22"/>
+        <v>1.9847841472045293</v>
+      </c>
+      <c r="AO103">
+        <f t="shared" si="23"/>
+        <v>6.8441682600382405</v>
+      </c>
+      <c r="AP103">
+        <f t="shared" si="24"/>
+        <v>6.7520814061054582</v>
+      </c>
+      <c r="AQ103">
+        <f t="shared" si="25"/>
+        <v>6.5677966101694913</v>
+      </c>
+      <c r="AR103">
+        <f t="shared" si="26"/>
+        <v>7.1</v>
+      </c>
+      <c r="AT103">
+        <f t="shared" si="27"/>
+        <v>7.2828077314343842</v>
+      </c>
+      <c r="AU103">
+        <f t="shared" si="28"/>
+        <v>7.1840551181102361</v>
+      </c>
+      <c r="AV103">
+        <f t="shared" si="29"/>
+        <v>6.6938579654510555</v>
+      </c>
+      <c r="AW103">
+        <f t="shared" si="30"/>
+        <v>7.3997361477572561</v>
+      </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C104">
         <v>7030</v>
       </c>
@@ -10303,8 +11474,56 @@
       <c r="AA104">
         <v>2422</v>
       </c>
+      <c r="AJ104">
+        <f t="shared" si="19"/>
+        <v>1.9523302263648468</v>
+      </c>
+      <c r="AK104">
+        <f t="shared" si="20"/>
+        <v>1.9753152669707539</v>
+      </c>
+      <c r="AL104">
+        <f t="shared" si="21"/>
+        <v>2.0828869467155342</v>
+      </c>
+      <c r="AM104">
+        <f t="shared" si="22"/>
+        <v>1.9896103896103896</v>
+      </c>
+      <c r="AO104">
+        <f t="shared" si="23"/>
+        <v>6.8514018691588783</v>
+      </c>
+      <c r="AP104">
+        <f t="shared" si="24"/>
+        <v>7.4438827098078866</v>
+      </c>
+      <c r="AQ104">
+        <f t="shared" si="25"/>
+        <v>7.1243972999035678</v>
+      </c>
+      <c r="AR104">
+        <f t="shared" si="26"/>
+        <v>7.2481720430107526</v>
+      </c>
+      <c r="AT104">
+        <f t="shared" si="27"/>
+        <v>7.2084562438544744</v>
+      </c>
+      <c r="AU104">
+        <f t="shared" si="28"/>
+        <v>7.0720461095100866</v>
+      </c>
+      <c r="AV104">
+        <f t="shared" si="29"/>
+        <v>6.679927667269439</v>
+      </c>
+      <c r="AW104">
+        <f t="shared" si="30"/>
+        <v>7.1832907075873829</v>
+      </c>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C105">
         <v>7131</v>
       </c>
@@ -10353,8 +11572,56 @@
       <c r="AA105">
         <v>2330</v>
       </c>
+      <c r="AJ105">
+        <f t="shared" si="19"/>
+        <v>1.8504869702553304</v>
+      </c>
+      <c r="AK105">
+        <f t="shared" si="20"/>
+        <v>1.9744869661674986</v>
+      </c>
+      <c r="AL105">
+        <f t="shared" si="21"/>
+        <v>1.8823218997361477</v>
+      </c>
+      <c r="AM105">
+        <f t="shared" si="22"/>
+        <v>1.9490246168137482</v>
+      </c>
+      <c r="AO105">
+        <f t="shared" si="23"/>
+        <v>6.7337164750957852</v>
+      </c>
+      <c r="AP105">
+        <f t="shared" si="24"/>
+        <v>7.0987038883349953</v>
+      </c>
+      <c r="AQ105">
+        <f t="shared" si="25"/>
+        <v>6.7620853080568724</v>
+      </c>
+      <c r="AR105">
+        <f t="shared" si="26"/>
+        <v>7.103258569614896</v>
+      </c>
+      <c r="AT105">
+        <f t="shared" si="27"/>
+        <v>4.3288177339901477</v>
+      </c>
+      <c r="AU105">
+        <f t="shared" si="28"/>
+        <v>7.0216962524654836</v>
+      </c>
+      <c r="AV105">
+        <f t="shared" si="29"/>
+        <v>7.0563798219584566</v>
+      </c>
+      <c r="AW105">
+        <f t="shared" si="30"/>
+        <v>6.930222956234517</v>
+      </c>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C106">
         <v>7418</v>
       </c>
@@ -10403,8 +11670,56 @@
       <c r="AA106">
         <v>2298</v>
       </c>
+      <c r="AJ106">
+        <f t="shared" si="19"/>
+        <v>1.9241770102536428</v>
+      </c>
+      <c r="AK106">
+        <f t="shared" si="20"/>
+        <v>2.0865800865800868</v>
+      </c>
+      <c r="AL106">
+        <f t="shared" si="21"/>
+        <v>2.0512160228898426</v>
+      </c>
+      <c r="AM106">
+        <f t="shared" si="22"/>
+        <v>2.0183255479698166</v>
+      </c>
+      <c r="AO106">
+        <f t="shared" si="23"/>
+        <v>6.4945355191256828</v>
+      </c>
+      <c r="AP106">
+        <f t="shared" si="24"/>
+        <v>6.9720347155255542</v>
+      </c>
+      <c r="AQ106">
+        <f t="shared" si="25"/>
+        <v>6.4936594202898554</v>
+      </c>
+      <c r="AR106">
+        <f t="shared" si="26"/>
+        <v>7.3617300131061603</v>
+      </c>
+      <c r="AT106">
+        <f t="shared" si="27"/>
+        <v>6.9367704280155644</v>
+      </c>
+      <c r="AU106">
+        <f t="shared" si="28"/>
+        <v>7.0194174757281553</v>
+      </c>
+      <c r="AV106">
+        <f t="shared" si="29"/>
+        <v>6.7188378631677601</v>
+      </c>
+      <c r="AW106">
+        <f t="shared" si="30"/>
+        <v>7.232188841201717</v>
+      </c>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C107">
         <v>7276</v>
       </c>
@@ -10453,8 +11768,56 @@
       <c r="AA107">
         <v>2263</v>
       </c>
+      <c r="AJ107">
+        <f t="shared" si="19"/>
+        <v>2.0334429824561404</v>
+      </c>
+      <c r="AK107">
+        <f t="shared" si="20"/>
+        <v>2.0734960272417706</v>
+      </c>
+      <c r="AL107">
+        <f t="shared" si="21"/>
+        <v>2.0302597773337139</v>
+      </c>
+      <c r="AM107">
+        <f t="shared" si="22"/>
+        <v>2.0108578928528815</v>
+      </c>
+      <c r="AO107">
+        <f t="shared" si="23"/>
+        <v>7.3372898120672598</v>
+      </c>
+      <c r="AP107">
+        <f t="shared" si="24"/>
+        <v>6.746999076638966</v>
+      </c>
+      <c r="AQ107">
+        <f t="shared" si="25"/>
+        <v>6.6904985888993416</v>
+      </c>
+      <c r="AR107">
+        <f t="shared" si="26"/>
+        <v>7.3529668411867366</v>
+      </c>
+      <c r="AT107">
+        <f t="shared" si="27"/>
+        <v>7.3664349553128101</v>
+      </c>
+      <c r="AU107">
+        <f t="shared" si="28"/>
+        <v>7.0057526366251199</v>
+      </c>
+      <c r="AV107">
+        <f t="shared" si="29"/>
+        <v>7.069582504970179</v>
+      </c>
+      <c r="AW107">
+        <f t="shared" si="30"/>
+        <v>7.3337684943429071</v>
+      </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C108">
         <v>7259</v>
       </c>
@@ -10503,8 +11866,56 @@
       <c r="AA108">
         <v>2341</v>
       </c>
+      <c r="AJ108">
+        <f t="shared" si="19"/>
+        <v>1.9643628509719222</v>
+      </c>
+      <c r="AK108">
+        <f t="shared" si="20"/>
+        <v>2.0731637610745928</v>
+      </c>
+      <c r="AL108">
+        <f t="shared" si="21"/>
+        <v>1.971412711629198</v>
+      </c>
+      <c r="AM108">
+        <f t="shared" si="22"/>
+        <v>2.0100430416068868</v>
+      </c>
+      <c r="AO108">
+        <f t="shared" si="23"/>
+        <v>6.7936507936507935</v>
+      </c>
+      <c r="AP108">
+        <f t="shared" si="24"/>
+        <v>7.1257367387033401</v>
+      </c>
+      <c r="AQ108">
+        <f t="shared" si="25"/>
+        <v>5.9241034195162632</v>
+      </c>
+      <c r="AR108">
+        <f t="shared" si="26"/>
+        <v>7.5627530364372468</v>
+      </c>
+      <c r="AT108">
+        <f t="shared" si="27"/>
+        <v>7.4244897959183671</v>
+      </c>
+      <c r="AU108">
+        <f t="shared" si="28"/>
+        <v>6.4194690265486729</v>
+      </c>
+      <c r="AV108">
+        <f t="shared" si="29"/>
+        <v>6.9637254901960786</v>
+      </c>
+      <c r="AW108">
+        <f t="shared" si="30"/>
+        <v>7.4290764471939905</v>
+      </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C109">
         <v>7366</v>
       </c>
@@ -10553,8 +11964,56 @@
       <c r="AA109">
         <v>2328</v>
       </c>
+      <c r="AJ109">
+        <f t="shared" si="19"/>
+        <v>1.9634839058696241</v>
+      </c>
+      <c r="AK109">
+        <f t="shared" si="20"/>
+        <v>1.9955244755244754</v>
+      </c>
+      <c r="AL109">
+        <f t="shared" si="21"/>
+        <v>1.970345963756178</v>
+      </c>
+      <c r="AM109">
+        <f t="shared" si="22"/>
+        <v>2.0253480899678684</v>
+      </c>
+      <c r="AO109">
+        <f t="shared" si="23"/>
+        <v>6.8223684210526319</v>
+      </c>
+      <c r="AP109">
+        <f t="shared" si="24"/>
+        <v>6.4619565217391308</v>
+      </c>
+      <c r="AQ109">
+        <f t="shared" si="25"/>
+        <v>5.7592295345104336</v>
+      </c>
+      <c r="AR109">
+        <f t="shared" si="26"/>
+        <v>7.5372010628875108</v>
+      </c>
+      <c r="AT109">
+        <f t="shared" si="27"/>
+        <v>7.3397371081900911</v>
+      </c>
+      <c r="AU109">
+        <f t="shared" si="28"/>
+        <v>7.2060606060606061</v>
+      </c>
+      <c r="AV109">
+        <f t="shared" si="29"/>
+        <v>6.7443609022556394</v>
+      </c>
+      <c r="AW109">
+        <f t="shared" si="30"/>
+        <v>7.2699700982486117</v>
+      </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>13</v>
       </c>
@@ -10563,15 +12022,15 @@
         <v>7292</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:F110" si="16">MEDIAN(D80:D109)</f>
+        <f t="shared" ref="D110:F110" si="31">MEDIAN(D80:D109)</f>
         <v>7296.5</v>
       </c>
       <c r="E110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>7234.5</v>
       </c>
       <c r="F110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>16898.5</v>
       </c>
       <c r="I110" t="s">
@@ -10582,15 +12041,15 @@
         <v>3636.5</v>
       </c>
       <c r="K110">
-        <f t="shared" ref="K110:M110" si="17">MEDIAN(K80:K109)</f>
+        <f t="shared" ref="K110:M110" si="32">MEDIAN(K80:K109)</f>
         <v>3665</v>
       </c>
       <c r="L110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>3580</v>
       </c>
       <c r="M110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>8453.5</v>
       </c>
       <c r="P110" t="s">
@@ -10601,15 +12060,15 @@
         <v>1067</v>
       </c>
       <c r="R110">
-        <f t="shared" ref="R110:T110" si="18">MEDIAN(R80:R109)</f>
+        <f t="shared" ref="R110:T110" si="33">MEDIAN(R80:R109)</f>
         <v>1056.5</v>
       </c>
       <c r="S110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>1070.5</v>
       </c>
       <c r="T110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>2317.5</v>
       </c>
       <c r="W110" t="s">
@@ -10620,19 +12079,67 @@
         <v>1019.5</v>
       </c>
       <c r="Y110">
-        <f t="shared" ref="Y110:AA110" si="19">MEDIAN(Y80:Y109)</f>
+        <f t="shared" ref="Y110:AA110" si="34">MEDIAN(Y80:Y109)</f>
         <v>1037.5</v>
       </c>
       <c r="Z110">
+        <f t="shared" si="34"/>
+        <v>1056</v>
+      </c>
+      <c r="AA110">
+        <f t="shared" si="34"/>
+        <v>2353</v>
+      </c>
+      <c r="AJ110">
         <f t="shared" si="19"/>
-        <v>1056</v>
-      </c>
-      <c r="AA110">
-        <f t="shared" si="19"/>
-        <v>2353</v>
+        <v>1.9967470859311467</v>
+      </c>
+      <c r="AK110">
+        <f t="shared" si="20"/>
+        <v>2.0622311442500716</v>
+      </c>
+      <c r="AL110">
+        <f t="shared" si="21"/>
+        <v>1.8178117048346056</v>
+      </c>
+      <c r="AM110">
+        <f t="shared" si="22"/>
+        <v>2.0137182392938091</v>
+      </c>
+      <c r="AO110">
+        <f t="shared" si="23"/>
+        <v>7.4554655870445341</v>
+      </c>
+      <c r="AP110">
+        <f t="shared" si="24"/>
+        <v>7.0293255131964809</v>
+      </c>
+      <c r="AQ110">
+        <f t="shared" si="25"/>
+        <v>6.27768014059754</v>
+      </c>
+      <c r="AR110">
+        <f t="shared" si="26"/>
+        <v>6.1925898752751287</v>
+      </c>
+      <c r="AT110">
+        <f t="shared" si="27"/>
+        <v>7.425403225806452</v>
+      </c>
+      <c r="AU110">
+        <f t="shared" si="28"/>
+        <v>7.0087719298245617</v>
+      </c>
+      <c r="AV110">
+        <f t="shared" si="29"/>
+        <v>6.6641791044776122</v>
+      </c>
+      <c r="AW110">
+        <f t="shared" si="30"/>
+        <v>7.2512886597938149</v>
       </c>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>12</v>
       </c>
@@ -10641,15 +12148,15 @@
         <v>97.122222222222263</v>
       </c>
       <c r="D111">
-        <f t="shared" ref="D111:F111" si="20">AVEDEV(D80:D109)</f>
+        <f t="shared" ref="D111:F111" si="35">AVEDEV(D80:D109)</f>
         <v>68.082222222222242</v>
       </c>
       <c r="E111">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>117.58444444444443</v>
       </c>
       <c r="F111">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>76.306666666666331</v>
       </c>
       <c r="I111" t="s">
@@ -10660,15 +12167,15 @@
         <v>92.1</v>
       </c>
       <c r="K111">
-        <f t="shared" ref="K111:M111" si="21">AVEDEV(K80:K109)</f>
+        <f t="shared" ref="K111:M111" si="36">AVEDEV(K80:K109)</f>
         <v>80.2</v>
       </c>
       <c r="L111">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>83.24444444444444</v>
       </c>
       <c r="M111">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>68.911111111110955</v>
       </c>
       <c r="P111" t="s">
@@ -10679,15 +12186,15 @@
         <v>72.524444444444455</v>
       </c>
       <c r="R111">
-        <f t="shared" ref="R111:T111" si="22">AVEDEV(R80:R109)</f>
+        <f t="shared" ref="R111:T111" si="37">AVEDEV(R80:R109)</f>
         <v>30.1</v>
       </c>
       <c r="S111">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>54.622222222222199</v>
       </c>
       <c r="T111">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>65.306666666666658</v>
       </c>
       <c r="W111" t="s">
@@ -10698,16 +12205,34 @@
         <v>86.828888888888869</v>
       </c>
       <c r="Y111">
-        <f t="shared" ref="Y111:AA111" si="23">AVEDEV(Y80:Y109)</f>
+        <f t="shared" ref="Y111:AA111" si="38">AVEDEV(Y80:Y109)</f>
         <v>27.1</v>
       </c>
       <c r="Z111">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>42.737777777777772</v>
       </c>
       <c r="AA111">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>50.417777777777793</v>
+      </c>
+    </row>
+    <row r="113" spans="46:49" x14ac:dyDescent="0.25">
+      <c r="AT113">
+        <f>_xlfn.T.TEST(AT81:AT110,$AW81:$AW110,2,3)</f>
+        <v>9.6792781715000373E-2</v>
+      </c>
+      <c r="AU113">
+        <f t="shared" ref="AU113:AW113" si="39">_xlfn.T.TEST(AU81:AU110,$AW81:$AW110,2,3)</f>
+        <v>1.0748295196726697E-2</v>
+      </c>
+      <c r="AV113">
+        <f t="shared" si="39"/>
+        <v>4.6029741558172326E-5</v>
+      </c>
+      <c r="AW113">
+        <f t="shared" si="39"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
